--- a/Docs/23_PMIC/HFTCoreModule_V1.1__replacements_DcDc-converters.xlsx
+++ b/Docs/23_PMIC/HFTCoreModule_V1.1__replacements_DcDc-converters.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\habel\git\HFT-Core-Module__DOCS\Docs\23_PMIC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="47200" windowHeight="26700" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="47205" windowHeight="26700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
   <si>
     <t>5V0 --&gt; 3V3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,10 +65,6 @@
   </si>
   <si>
     <t>0A6</t>
-  </si>
-  <si>
-    <t>best fit for design, very useable extra signals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>very good but missing extra signals of TPS62056DGSR</t>
@@ -154,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>best fit for design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7mA5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,188 +250,217 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1MHz5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2MHz5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0MHz100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3mm x 3mm, 12 pins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2mm x 2mm,  8 pins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC-74A, SOT-753, 5 pins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-SOIC (0,154“, 3mm90 width)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-5 thin, TSOT-23-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-TFSOP, 10-MSOP (0,118“, 3mm00 width)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-TFSOP, 10-MSOP (0,118“, 3mm00 width, with center pad)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC-74A, SOT-753</t>
+  </si>
+  <si>
+    <t>TSOT25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSSOP8 </t>
+  </si>
+  <si>
+    <t>SC-74A, SOT-753, 5 pins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIC23150</t>
+  </si>
+  <si>
+    <t>SC189ZSKTRT</t>
+  </si>
+  <si>
+    <t>AP1509-33SG-13</t>
+  </si>
+  <si>
+    <t>MCP1603T-330I/OS</t>
+  </si>
+  <si>
+    <t>ADP2108AUJZ-3.3-R7</t>
+  </si>
+  <si>
+    <t>TPS62056DGSR</t>
+  </si>
+  <si>
+    <t>TPS62046DGQR</t>
+  </si>
+  <si>
+    <t>PAM2301CAAB330</t>
+  </si>
+  <si>
+    <t>XC9236A33DMR-G</t>
+  </si>
+  <si>
+    <t>TPS62051DGSR</t>
+  </si>
+  <si>
+    <t>5V0 --&gt; 3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3V3 --&gt; 1V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0A8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAM2305AAB120</t>
+  </si>
+  <si>
+    <t>Previous V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max effic.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effic. @ 1mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiscient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inductor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPV1040T</t>
+  </si>
+  <si>
+    <t>3V3 --&gt; 1V2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BQ25570</t>
+  </si>
+  <si>
+    <t>2V0 --&gt; 5V0, 5V0 --&gt; 3V3</t>
+  </si>
+  <si>
+    <t>0A110</t>
+  </si>
+  <si>
+    <t>0.488µA</t>
+  </si>
+  <si>
+    <t>Coilcraft 22μH LPS4018, Toko 10 μH DFE252012C</t>
+  </si>
+  <si>
     <t>0MHz850 PWM+PFM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1MHz5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2MHz5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0MHz100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3mm x 3mm, 12 pins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2mm x 2mm,  8 pins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC-74A, SOT-753, 5 pins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-SOIC (0,154“, 3mm90 width)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOT-23-5 thin, TSOT-23-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-TFSOP, 10-MSOP (0,118“, 3mm00 width)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-TFSOP, 10-MSOP (0,118“, 3mm00 width, with center pad)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC-74A, SOT-753</t>
-  </si>
-  <si>
-    <t>TSOT25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSSOP8 </t>
-  </si>
-  <si>
-    <t>SC-74A, SOT-753, 5 pins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIC23150</t>
-  </si>
-  <si>
-    <t>SC189ZSKTRT</t>
-  </si>
-  <si>
-    <t>AP1509-33SG-13</t>
-  </si>
-  <si>
-    <t>MCP1603T-330I/OS</t>
-  </si>
-  <si>
-    <t>ADP2108AUJZ-3.3-R7</t>
-  </si>
-  <si>
-    <t>TPS62056DGSR</t>
-  </si>
-  <si>
-    <t>TPS62046DGQR</t>
-  </si>
-  <si>
-    <t>PAM2301CAAB330</t>
-  </si>
-  <si>
-    <t>XC9236A33DMR-G</t>
-  </si>
-  <si>
-    <t>TPS62051DGSR</t>
-  </si>
-  <si>
-    <t>5V0 --&gt; 3V3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3V3 --&gt; 1V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2A0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0A5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0A6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0A8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0A8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAM2305AAB120</t>
-  </si>
-  <si>
-    <t>Previous V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convertion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max effic.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effic. @ 1mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quiscient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inductor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frequency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remarks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPV1040T</t>
-  </si>
-  <si>
-    <t>3V3 --&gt; 1V2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-VQFN (3.5mm x 3.5mm)</t>
+  </si>
+  <si>
+    <t>best fit for design for this DC/DC conv.</t>
+  </si>
+  <si>
+    <t>very useable extra signals</t>
+  </si>
+  <si>
+    <t>1MHz &amp; 500kHz PWM+PFM</t>
+  </si>
+  <si>
+    <t>88% (boost), 89% (buck)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -471,12 +497,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="57"/>
-      <name val="Courier"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color indexed="10"/>
       <name val="Courier"/>
     </font>
@@ -490,6 +510,18 @@
       <b/>
       <sz val="10"/>
       <color indexed="60"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Courier"/>
     </font>
   </fonts>
@@ -514,7 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -553,15 +585,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -573,13 +604,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -902,595 +953,624 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="49.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="55.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="55.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" customHeight="1">
+    <row r="1" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="13" customHeight="1"/>
-    <row r="3" spans="1:10" ht="13" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>78</v>
+      <c r="B3" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0.93</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0.85</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="9">
+        <v>77</v>
+      </c>
+      <c r="D4" s="8">
         <v>0.93</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>0.87</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.93</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="9">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8">
         <v>0.93</v>
       </c>
-      <c r="E8" s="9">
-        <v>0.77</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E11" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="13" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="13" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="9">
+        <v>80</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.88</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0.82</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13" customHeight="1">
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="13" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="12">
         <v>0.9</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="12">
         <v>0.87</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13" customHeight="1">
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="13" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="13" customHeight="1">
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="13" customHeight="1">
+    <row r="18" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="13" customHeight="1">
+    <row r="19" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="13" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>100</v>
+    <row r="20" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.87</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0.68</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.93</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="13" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="20" t="s">
+    <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>0.95</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>0.93</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10">
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="10:10">
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="10:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="10:10">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" scale="50" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="10" scale="51" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
